--- a/src/main/resources/Testdata/Testdata.xlsx
+++ b/src/main/resources/Testdata/Testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MounikaTuthika-Kairo\IdeaProjects\DentalSuite (3)\DentalSuiteFinal\src\main\resources\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{315643D7-F876-47B4-8D17-89763415D73E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80279B13-E7E6-4F9E-A980-4798242DD3DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{0AEB4289-D763-436E-A513-C1E1CDAD85FF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>User</t>
   </si>
@@ -44,15 +44,6 @@
     <t>Passcode</t>
   </si>
   <si>
-    <t>Admin User-khaja</t>
-  </si>
-  <si>
-    <t>Practice manager-khaja alpa pm</t>
-  </si>
-  <si>
-    <t>Practice manager- alpa pm alpha</t>
-  </si>
-  <si>
     <t>0832</t>
   </si>
   <si>
@@ -60,6 +51,33 @@
   </si>
   <si>
     <t>6638</t>
+  </si>
+  <si>
+    <t>Admin Test</t>
+  </si>
+  <si>
+    <t>alphaPracticeManager KPR</t>
+  </si>
+  <si>
+    <t>Practice  Manager Alpha</t>
+  </si>
+  <si>
+    <t>3315</t>
+  </si>
+  <si>
+    <t>4368</t>
+  </si>
+  <si>
+    <t>KhajaPmAlpha alpha</t>
+  </si>
+  <si>
+    <t>Khaja admin</t>
+  </si>
+  <si>
+    <t>alpha pm alpha</t>
+  </si>
+  <si>
+    <t>5631</t>
   </si>
 </sst>
 </file>
@@ -432,16 +450,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F7E86F4-502F-437F-8AEC-567398D85AD6}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A2" sqref="A2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="28.08984375" customWidth="1"/>
-    <col min="2" max="2" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="24.54296875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -454,26 +472,50 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1" t="s">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
